--- a/board/board.xlsx
+++ b/board/board.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi\Coding\python\ffbe\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCE33B6-79E9-458E-9A23-47281E958121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E466C6-49D3-4230-9E6D-25E2C52C8059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{22A6B02C-C23B-4629-9D20-3125872BB3F0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{22A6B02C-C23B-4629-9D20-3125872BB3F0}"/>
   </bookViews>
   <sheets>
     <sheet name="0906" sheetId="1" r:id="rId1"/>
     <sheet name="0907" sheetId="2" r:id="rId2"/>
+    <sheet name="0908" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
   <si>
     <t>방덱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -760,13 +761,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -818,15 +828,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,71 +1168,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="16">
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="15"/>
       <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
       <c r="R2" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="18">
         <v>90</v>
       </c>
-      <c r="F3" s="46" t="str">
+      <c r="F3" s="28" t="str">
         <f>CONCATENATE(E3,"  vs.  ",K3)</f>
         <v>90  vs.  89</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="18">
         <f>3*$C$2-(SUM($C$12:$C$26)+SUM($K$12:$K$26))</f>
         <v>89</v>
@@ -1239,9 +1240,9 @@
       <c r="L3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
       <c r="R3" s="9" t="s">
         <v>57</v>
       </c>
@@ -1268,23 +1269,23 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="5">
         <v>17</v>
       </c>
-      <c r="F4" s="38" t="str">
+      <c r="F4" s="41" t="str">
         <f>CONCATENATE(E4,"  vs.  ",K4)</f>
         <v>17  vs.  17</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="5">
         <f>2*C2-(5*30-(COUNTBLANK(E12:I26)+COUNTBLANK(M12:Q26)))</f>
         <v>17</v>
@@ -1292,9 +1293,9 @@
       <c r="L4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
       <c r="R4" s="9" t="s">
         <v>42</v>
       </c>
@@ -1327,11 +1328,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="17" t="s">
         <v>41</v>
       </c>
@@ -1339,14 +1340,14 @@
         <f>E3+R5</f>
         <v>93</v>
       </c>
-      <c r="F5" s="39" t="str">
+      <c r="F5" s="42" t="str">
         <f>CONCATENATE(E5,"  vs.  ",K5)</f>
         <v>93  vs.  90</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="18">
         <f>K3+S5</f>
         <v>90</v>
@@ -1354,9 +1355,9 @@
       <c r="L5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
       <c r="R5" s="9">
         <f>3*R6</f>
         <v>3</v>
@@ -1367,9 +1368,9 @@
       </c>
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="19" t="s">
         <v>40</v>
       </c>
@@ -1377,14 +1378,14 @@
         <f>E4-R6</f>
         <v>16</v>
       </c>
-      <c r="F6" s="42" t="str">
+      <c r="F6" s="45" t="str">
         <f>CONCATENATE(E6,"  vs.  ",K6)</f>
         <v>16  vs.  16</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="20">
         <f>K4-S6</f>
         <v>16</v>
@@ -1392,9 +1393,9 @@
       <c r="L6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
       <c r="R6" s="9">
         <f>IF(E4&gt;K6,E4-K6,0)</f>
         <v>1</v>
@@ -1405,11 +1406,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1417,11 +1418,11 @@
         <f>COUNTIF($C$12:$C$26,"&gt;0")+COUNTIF($K$12:$K$26,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="5">
         <f>SUM(K8:K10)</f>
         <v>2</v>
@@ -1429,15 +1430,15 @@
       <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1445,26 +1446,26 @@
         <f>COUNTIF($C$12:$C$26,"=3")+COUNTIF($K$12:$K$26,"=3")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
@@ -1472,26 +1473,26 @@
         <f>COUNTIF($C$12:$C$26,"=2")+COUNTIF($K$12:$K$26,"=2")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1499,20 +1500,20 @@
         <f>COUNTIF($C$12:$C$26,"=1")+COUNTIF($K$12:$K$26,"=1")</f>
         <v>1</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="5">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
@@ -2401,29 +2402,24 @@
       </c>
     </row>
     <row r="27" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
       <c r="R27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="B27:O27"/>
@@ -2438,6 +2434,11 @@
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB096B9-AA6A-4E68-85A9-079266E2A1A6}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.6"/>
@@ -2474,71 +2475,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="16">
         <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="15"/>
       <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
       <c r="R2" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="18">
         <v>64</v>
       </c>
-      <c r="F3" s="46" t="str">
+      <c r="F3" s="28" t="str">
         <f>CONCATENATE(E3,"  vs.  ",K3)</f>
         <v>64  vs.  87</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="18">
         <f>3*30-(SUM($C$12:$C$26)+SUM($K$12:$K$26))</f>
         <v>87</v>
@@ -2546,9 +2547,9 @@
       <c r="L3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
       <c r="R3" s="9" t="s">
         <v>57</v>
       </c>
@@ -2575,23 +2576,23 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="5">
         <v>20</v>
       </c>
-      <c r="F4" s="38" t="str">
+      <c r="F4" s="41" t="str">
         <f>CONCATENATE(E4,"  vs.  ",K4)</f>
         <v>20  vs.  12</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="5">
         <f>2*C2-(5*30-(COUNTBLANK(E12:I26)+COUNTBLANK(M12:Q26)))</f>
         <v>12</v>
@@ -2599,9 +2600,9 @@
       <c r="L4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
       <c r="R4" s="9" t="s">
         <v>42</v>
       </c>
@@ -2634,11 +2635,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="17" t="s">
         <v>41</v>
       </c>
@@ -2646,14 +2647,14 @@
         <f>E3+R5</f>
         <v>88</v>
       </c>
-      <c r="F5" s="39" t="str">
+      <c r="F5" s="42" t="str">
         <f>CONCATENATE(E5,"  vs.  ",K5)</f>
         <v>88  vs.  87</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="18">
         <f>K3+S5</f>
         <v>87</v>
@@ -2661,9 +2662,9 @@
       <c r="L5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
       <c r="R5" s="9">
         <f>3*R6</f>
         <v>24</v>
@@ -2674,9 +2675,9 @@
       </c>
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="19" t="s">
         <v>40</v>
       </c>
@@ -2684,14 +2685,14 @@
         <f>E4-R6</f>
         <v>12</v>
       </c>
-      <c r="F6" s="42" t="str">
+      <c r="F6" s="45" t="str">
         <f>CONCATENATE(E6,"  vs.  ",K6)</f>
         <v>12  vs.  12</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="20">
         <f>K4-S6</f>
         <v>12</v>
@@ -2699,9 +2700,9 @@
       <c r="L6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
       <c r="R6" s="9">
         <f>IF(E4&gt;K6,E4-K6,0)</f>
         <v>8</v>
@@ -2712,11 +2713,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2724,27 +2725,27 @@
         <f>COUNTIF($C$12:$C$26,"&gt;0")+COUNTIF($K$12:$K$26,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25">
         <f>SUM(K8:K10)</f>
         <v>13</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
@@ -2752,26 +2753,26 @@
         <f>COUNTIF($C$12:$C$26,"=3")+COUNTIF($K$12:$K$26,"=3")</f>
         <v>1</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25">
         <v>8</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
@@ -2779,26 +2780,26 @@
         <f>COUNTIF($C$12:$C$26,"=2")+COUNTIF($K$12:$K$26,"=2")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25">
         <v>4</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -2806,20 +2807,20 @@
         <f>COUNTIF($C$12:$C$26,"=1")+COUNTIF($K$12:$K$26,"=1")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47">
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
@@ -2874,14 +2875,14 @@
       <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:29" ht="25.15" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="47">
-        <v>1</v>
-      </c>
-      <c r="C12" s="47">
-        <f>3-(SUM(E12:I12))</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="47" t="s">
+      <c r="B12" s="25">
+        <v>1</v>
+      </c>
+      <c r="C12" s="25">
+        <f t="shared" ref="C12:C26" si="0">3-(SUM(E12:I12))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="1">
@@ -2894,14 +2895,14 @@
         <v>2</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="47">
+      <c r="J12" s="25">
         <v>16</v>
       </c>
-      <c r="K12" s="47">
-        <f t="shared" ref="K12:K26" si="0">3-(SUM(M12:Q12))</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="47" t="s">
+      <c r="K12" s="25">
+        <f t="shared" ref="K12:K26" si="1">3-(SUM(M12:Q12))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="25" t="s">
         <v>74</v>
       </c>
       <c r="M12" s="1">
@@ -2911,15 +2912,15 @@
         <v>2</v>
       </c>
       <c r="U12" s="1" t="b">
-        <f t="shared" ref="U12:W26" si="1">IF($C12=U$3, IF($D12&lt;&gt;"", $D12))</f>
+        <f t="shared" ref="U12:W26" si="2">IF($C12=U$3, IF($D12&lt;&gt;"", $D12))</f>
         <v>0</v>
       </c>
       <c r="V12" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="1" t="b">
@@ -2927,23 +2928,23 @@
         <v>0</v>
       </c>
       <c r="AA12" s="1" t="b">
-        <f t="shared" ref="AA12:AB26" si="2">IF($K12=AA$3,IF($L12&lt;&gt;"",$L12))</f>
+        <f t="shared" ref="AA12:AB26" si="3">IF($K12=AA$3,IF($L12&lt;&gt;"",$L12))</f>
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.6">
-      <c r="B13" s="47">
+      <c r="B13" s="25">
         <v>2</v>
       </c>
-      <c r="C13" s="47">
-        <f>3-(SUM(E13:I13))</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="47" t="s">
+      <c r="C13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="1">
@@ -2953,14 +2954,14 @@
         <v>3</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="47">
+      <c r="J13" s="25">
         <v>17</v>
       </c>
-      <c r="K13" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="47" t="s">
+      <c r="K13" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="25" t="s">
         <v>75</v>
       </c>
       <c r="M13" s="1">
@@ -2970,39 +2971,39 @@
         <v>1</v>
       </c>
       <c r="U13" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13" s="1" t="b">
-        <f t="shared" ref="Z13:Z26" si="3">IF($K13=Z$3,IF($L13&lt;&gt;"",$L13))</f>
+        <f t="shared" ref="Z13:Z26" si="4">IF($K13=Z$3,IF($L13&lt;&gt;"",$L13))</f>
         <v>0</v>
       </c>
       <c r="AA13" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.6">
-      <c r="B14" s="47">
-        <v>3</v>
-      </c>
-      <c r="C14" s="47">
-        <f>3-(SUM(E14:I14))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="47" t="s">
+      <c r="B14" s="25">
+        <v>3</v>
+      </c>
+      <c r="C14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="1">
@@ -3012,70 +3013,70 @@
         <v>2</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="47">
+      <c r="J14" s="25">
         <v>18</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3</v>
+      </c>
+      <c r="U14" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="B15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>3</v>
-      </c>
-      <c r="U14" s="1" t="b">
+      <c r="D15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="25">
+        <v>19</v>
+      </c>
+      <c r="K15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.6">
-      <c r="B15" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="47">
-        <f>3-(SUM(E15:I15))</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="47">
-        <v>19</v>
-      </c>
-      <c r="K15" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="25" t="s">
         <v>77</v>
       </c>
       <c r="M15" s="1">
@@ -3085,53 +3086,53 @@
         <v>1</v>
       </c>
       <c r="U15" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="B16" s="25">
+        <v>5</v>
+      </c>
+      <c r="C16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="25">
+        <v>20</v>
+      </c>
+      <c r="K16" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V15" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.6">
-      <c r="B16" s="47">
-        <v>5</v>
-      </c>
-      <c r="C16" s="47">
-        <f>3-(SUM(E16:I16))</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="47">
-        <v>20</v>
-      </c>
-      <c r="K16" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="47" t="s">
+      <c r="L16" s="25" t="s">
         <v>78</v>
       </c>
       <c r="M16" s="1">
@@ -3141,165 +3142,165 @@
         <v>1</v>
       </c>
       <c r="U16" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B17" s="25">
+        <v>6</v>
+      </c>
+      <c r="C17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="25">
+        <v>21</v>
+      </c>
+      <c r="K17" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V16" s="1" t="b">
+      <c r="L17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3</v>
+      </c>
+      <c r="U17" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B18" s="25">
+        <v>7</v>
+      </c>
+      <c r="C18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="25">
+        <v>22</v>
+      </c>
+      <c r="K18" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W16" s="1" t="b">
+      <c r="L18" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="U18" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B19" s="25">
+        <v>8</v>
+      </c>
+      <c r="C19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="25">
+        <v>23</v>
+      </c>
+      <c r="K19" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="1" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.6">
-      <c r="B17" s="47">
-        <v>6</v>
-      </c>
-      <c r="C17" s="47">
-        <f>3-(SUM(E17:I17))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="47">
-        <v>21</v>
-      </c>
-      <c r="K17" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="1">
-        <v>3</v>
-      </c>
-      <c r="U17" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.6">
-      <c r="B18" s="47">
-        <v>7</v>
-      </c>
-      <c r="C18" s="47">
-        <f>3-(SUM(E18:I18))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="47">
-        <v>22</v>
-      </c>
-      <c r="K18" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="1">
-        <v>3</v>
-      </c>
-      <c r="U18" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.6">
-      <c r="B19" s="47">
-        <v>8</v>
-      </c>
-      <c r="C19" s="47">
-        <f>3-(SUM(E19:I19))</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="47">
-        <v>23</v>
-      </c>
-      <c r="K19" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="25" t="s">
         <v>81</v>
       </c>
       <c r="M19" s="1">
@@ -3309,39 +3310,39 @@
         <v>2</v>
       </c>
       <c r="U19" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V19" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W19" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z19" s="1" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB19" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.6">
-      <c r="B20" s="47">
+      <c r="B20" s="25">
         <v>9</v>
       </c>
-      <c r="C20" s="47">
-        <f>3-(SUM(E20:I20))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="47" t="s">
+      <c r="C20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="1">
@@ -3351,53 +3352,53 @@
         <v>2</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="47">
+      <c r="J20" s="25">
         <v>24</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3</v>
+      </c>
+      <c r="U20" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B21" s="25">
+        <v>10</v>
+      </c>
+      <c r="C21" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="M20" s="1">
-        <v>3</v>
-      </c>
-      <c r="U20" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.6">
-      <c r="B21" s="47">
-        <v>10</v>
-      </c>
-      <c r="C21" s="47">
-        <f>3-(SUM(E21:I21))</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="1">
@@ -3407,53 +3408,53 @@
         <v>2</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="47">
+      <c r="J21" s="25">
         <v>25</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="U21" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B22" s="25">
+        <v>11</v>
+      </c>
+      <c r="C22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="1">
-        <v>3</v>
-      </c>
-      <c r="U21" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.6">
-      <c r="B22" s="47">
-        <v>11</v>
-      </c>
-      <c r="C22" s="47">
-        <f>3-(SUM(E22:I22))</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="1">
@@ -3463,56 +3464,56 @@
         <v>2</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="47">
+      <c r="J22" s="25">
         <v>26</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>3</v>
+      </c>
+      <c r="U22" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B23" s="25">
+        <v>12</v>
+      </c>
+      <c r="C23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>3</v>
-      </c>
-      <c r="U22" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.6">
-      <c r="B23" s="47">
-        <v>12</v>
-      </c>
-      <c r="C23" s="47">
-        <f>3-(SUM(E23:I23))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="25" t="s">
         <v>70</v>
       </c>
       <c r="E23" s="1">
@@ -3522,94 +3523,94 @@
         <v>2</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="47">
+      <c r="J23" s="25">
         <v>27</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3</v>
+      </c>
+      <c r="U23" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B24" s="25">
+        <v>13</v>
+      </c>
+      <c r="C24" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="1">
-        <v>3</v>
-      </c>
-      <c r="U23" s="1" t="b">
+      <c r="D24" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="25">
+        <v>28</v>
+      </c>
+      <c r="K24" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V23" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.6">
-      <c r="B24" s="47">
-        <v>13</v>
-      </c>
-      <c r="C24" s="47">
-        <f>3-(SUM(E24:I24))</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="47">
-        <v>28</v>
-      </c>
-      <c r="K24" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="25" t="s">
         <v>86</v>
       </c>
       <c r="M24" s="1">
         <v>3</v>
       </c>
       <c r="U24" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V24" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W24" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z24" s="1" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA24" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB24" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3618,71 +3619,71 @@
         <v>14</v>
       </c>
       <c r="C25" s="3">
-        <f>3-(SUM(E25:I25))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="47">
+      <c r="J25" s="25">
         <v>29</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="U25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>백수룡</v>
+      </c>
+      <c r="V25" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B26" s="25">
+        <v>15</v>
+      </c>
+      <c r="C26" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" s="1">
-        <v>3</v>
-      </c>
-      <c r="U25" s="1" t="str">
+      <c r="D26" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="25">
+        <v>30</v>
+      </c>
+      <c r="K26" s="25">
         <f t="shared" si="1"/>
-        <v>백수룡</v>
-      </c>
-      <c r="V25" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="1" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B26" s="47">
-        <v>15</v>
-      </c>
-      <c r="C26" s="47">
-        <f>3-(SUM(E26:I26))</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="47">
-        <v>30</v>
-      </c>
-      <c r="K26" s="47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="14" t="s">
@@ -3692,45 +3693,1348 @@
         <v>3</v>
       </c>
       <c r="U26" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="R27" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="M3:O4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="M7:O10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B90C6D5-4AEC-4642-99CE-F49BBD127ABC}">
+  <dimension ref="A1:AC27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="9" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="20.5" style="2" customWidth="1"/>
+    <col min="13" max="15" width="9" style="1"/>
+    <col min="16" max="17" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="8"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="12.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="12.625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="2" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="16">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="R2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="18">
+        <v>81</v>
+      </c>
+      <c r="F3" s="28" t="str">
+        <f>CONCATENATE(E3,"  vs.  ",K3)</f>
+        <v>81  vs.  83</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="18">
+        <f>3*30-(SUM($C$12:$C$26)+SUM($K$12:$K$26))</f>
+        <v>83</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="R3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="41" t="str">
+        <f>CONCATENATE(E4,"  vs.  ",K4)</f>
+        <v>15  vs.  16</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="5">
+        <f>2*C2-(5*30-(COUNTBLANK(E12:I26)+COUNTBLANK(M12:Q26)))</f>
+        <v>16</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="R4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="23">
+        <f>E3+R5</f>
+        <v>81</v>
+      </c>
+      <c r="F5" s="42" t="str">
+        <f>CONCATENATE(E5,"  vs.  ",K5)</f>
+        <v>81  vs.  84</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="18">
+        <f>K3+S5</f>
+        <v>84</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="R5" s="9">
+        <f>3*R6</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <f>2*E9+E10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="24">
+        <f>E4-R6</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="45" t="str">
+        <f>CONCATENATE(E6,"  vs.  ",K6)</f>
+        <v>15  vs.  15</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="20">
+        <f>K4-S6</f>
+        <v>15</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="R6" s="9">
+        <f>IF(E4&gt;K6,E4-K6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <f>SUM(E9:E10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1">
+        <f>COUNTIF($C$12:$C$26,"&gt;0")+COUNTIF($K$12:$K$26,"&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="1">
+        <f>SUM(K8:K10)</f>
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1">
+        <f>COUNTIF($C$12:$C$26,"=3")+COUNTIF($K$12:$K$26,"=3")</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1">
+        <f>COUNTIF($C$12:$C$26,"=2")+COUNTIF($K$12:$K$26,"=2")</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1">
+        <f>COUNTIF($C$12:$C$26,"=1")+COUNTIF($K$12:$K$26,"=1")</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:29" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:29" ht="25.15" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:C26" si="0">3-(SUM(E12:I12))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="1">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" ref="K12:K26" si="1">3-(SUM(M12:Q12))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2</v>
+      </c>
+      <c r="U12" s="1" t="b">
+        <f t="shared" ref="U12:W26" si="2">IF($C12=U$3, IF($D12&lt;&gt;"", $D12))</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1" t="b">
+        <f>IF($K12=Z$3,IF($L12&lt;&gt;"",$L12))</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1" t="b">
+        <f t="shared" ref="AA12:AB26" si="3">IF($K12=AA$3,IF($L12&lt;&gt;"",$L12))</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1">
+        <v>17</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="str">
+        <f t="shared" ref="Z13:Z26" si="4">IF($K13=Z$3,IF($L13&lt;&gt;"",$L13))</f>
+        <v>낮술이최고야</v>
+      </c>
+      <c r="AA13" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1">
+        <v>19</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+      <c r="U15" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>티파 록하트</v>
+      </c>
+      <c r="Z15" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1">
+        <v>20</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1">
+        <v>21</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
+      <c r="U17" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1">
+        <v>22</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="U18" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1">
+        <v>23</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3</v>
+      </c>
+      <c r="U19" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="1">
+        <v>24</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3</v>
+      </c>
+      <c r="U20" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="1">
+        <v>25</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2</v>
+      </c>
+      <c r="U21" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B22" s="1">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="1">
+        <v>26</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+      <c r="U22" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B23" s="1">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="1">
+        <v>27</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="U23" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B24" s="1">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1">
+        <v>28</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+      <c r="U24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MSX4041</v>
+      </c>
+      <c r="V24" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B25" s="1">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="1">
+        <v>29</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="U25" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B26" s="1">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="1">
+        <v>30</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+      <c r="U26" s="1" t="b">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V26" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z26" s="1" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA26" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB26" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
       <c r="R27" s="10"/>
     </row>
   </sheetData>
@@ -3753,5 +5057,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C12 C13:C26" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/board/board.xlsx
+++ b/board/board.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi\Coding\python\ffbe\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E466C6-49D3-4230-9E6D-25E2C52C8059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449950ED-310A-44EB-A8A9-E9D2741EFB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{22A6B02C-C23B-4629-9D20-3125872BB3F0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="3" xr2:uid="{22A6B02C-C23B-4629-9D20-3125872BB3F0}"/>
   </bookViews>
   <sheets>
     <sheet name="0906" sheetId="1" r:id="rId1"/>
     <sheet name="0907" sheetId="2" r:id="rId2"/>
     <sheet name="0908" sheetId="3" r:id="rId3"/>
+    <sheet name="0909" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="96">
   <si>
     <t>방덱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +475,23 @@
     <font>
       <sz val="16"/>
       <color theme="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -685,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,10 +782,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,6 +798,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -828,6 +852,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,71 +1195,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="16">
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="15"/>
       <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
       <c r="R2" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="18">
         <v>90</v>
       </c>
-      <c r="F3" s="28" t="str">
+      <c r="F3" s="29" t="str">
         <f>CONCATENATE(E3,"  vs.  ",K3)</f>
         <v>90  vs.  89</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="18">
         <f>3*$C$2-(SUM($C$12:$C$26)+SUM($K$12:$K$26))</f>
         <v>89</v>
@@ -1240,9 +1267,9 @@
       <c r="L3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
       <c r="R3" s="9" t="s">
         <v>57</v>
       </c>
@@ -1269,23 +1296,23 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="5">
         <v>17</v>
       </c>
-      <c r="F4" s="41" t="str">
+      <c r="F4" s="43" t="str">
         <f>CONCATENATE(E4,"  vs.  ",K4)</f>
         <v>17  vs.  17</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="5">
         <f>2*C2-(5*30-(COUNTBLANK(E12:I26)+COUNTBLANK(M12:Q26)))</f>
         <v>17</v>
@@ -1293,9 +1320,9 @@
       <c r="L4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
       <c r="R4" s="9" t="s">
         <v>42</v>
       </c>
@@ -1328,11 +1355,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="17" t="s">
         <v>41</v>
       </c>
@@ -1340,14 +1367,14 @@
         <f>E3+R5</f>
         <v>93</v>
       </c>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="44" t="str">
         <f>CONCATENATE(E5,"  vs.  ",K5)</f>
         <v>93  vs.  90</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
       <c r="K5" s="18">
         <f>K3+S5</f>
         <v>90</v>
@@ -1355,9 +1382,9 @@
       <c r="L5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
       <c r="R5" s="9">
         <f>3*R6</f>
         <v>3</v>
@@ -1368,9 +1395,9 @@
       </c>
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="19" t="s">
         <v>40</v>
       </c>
@@ -1378,14 +1405,14 @@
         <f>E4-R6</f>
         <v>16</v>
       </c>
-      <c r="F6" s="45" t="str">
+      <c r="F6" s="47" t="str">
         <f>CONCATENATE(E6,"  vs.  ",K6)</f>
         <v>16  vs.  16</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="20">
         <f>K4-S6</f>
         <v>16</v>
@@ -1393,9 +1420,9 @@
       <c r="L6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
       <c r="R6" s="9">
         <f>IF(E4&gt;K6,E4-K6,0)</f>
         <v>1</v>
@@ -1406,11 +1433,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1418,11 +1445,11 @@
         <f>COUNTIF($C$12:$C$26,"&gt;0")+COUNTIF($K$12:$K$26,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="5">
         <f>SUM(K8:K10)</f>
         <v>2</v>
@@ -1430,15 +1457,15 @@
       <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1446,26 +1473,26 @@
         <f>COUNTIF($C$12:$C$26,"=3")+COUNTIF($K$12:$K$26,"=3")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
@@ -1473,26 +1500,26 @@
         <f>COUNTIF($C$12:$C$26,"=2")+COUNTIF($K$12:$K$26,"=2")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1500,20 +1527,20 @@
         <f>COUNTIF($C$12:$C$26,"=1")+COUNTIF($K$12:$K$26,"=1")</f>
         <v>1</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="5">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
@@ -2402,26 +2429,24 @@
       </c>
     </row>
     <row r="27" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
       <c r="R27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="B27:O27"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:O4"/>
@@ -2439,6 +2464,8 @@
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="A7:C10"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2475,71 +2502,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="16">
         <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="15"/>
       <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
       <c r="R2" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="18">
         <v>64</v>
       </c>
-      <c r="F3" s="28" t="str">
+      <c r="F3" s="29" t="str">
         <f>CONCATENATE(E3,"  vs.  ",K3)</f>
         <v>64  vs.  87</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="18">
         <f>3*30-(SUM($C$12:$C$26)+SUM($K$12:$K$26))</f>
         <v>87</v>
@@ -2547,9 +2574,9 @@
       <c r="L3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
       <c r="R3" s="9" t="s">
         <v>57</v>
       </c>
@@ -2576,23 +2603,23 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="5">
         <v>20</v>
       </c>
-      <c r="F4" s="41" t="str">
+      <c r="F4" s="43" t="str">
         <f>CONCATENATE(E4,"  vs.  ",K4)</f>
         <v>20  vs.  12</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="5">
         <f>2*C2-(5*30-(COUNTBLANK(E12:I26)+COUNTBLANK(M12:Q26)))</f>
         <v>12</v>
@@ -2600,9 +2627,9 @@
       <c r="L4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
       <c r="R4" s="9" t="s">
         <v>42</v>
       </c>
@@ -2635,11 +2662,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="17" t="s">
         <v>41</v>
       </c>
@@ -2647,14 +2674,14 @@
         <f>E3+R5</f>
         <v>88</v>
       </c>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="44" t="str">
         <f>CONCATENATE(E5,"  vs.  ",K5)</f>
         <v>88  vs.  87</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
       <c r="K5" s="18">
         <f>K3+S5</f>
         <v>87</v>
@@ -2662,9 +2689,9 @@
       <c r="L5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
       <c r="R5" s="9">
         <f>3*R6</f>
         <v>24</v>
@@ -2675,9 +2702,9 @@
       </c>
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="19" t="s">
         <v>40</v>
       </c>
@@ -2685,14 +2712,14 @@
         <f>E4-R6</f>
         <v>12</v>
       </c>
-      <c r="F6" s="45" t="str">
+      <c r="F6" s="47" t="str">
         <f>CONCATENATE(E6,"  vs.  ",K6)</f>
         <v>12  vs.  12</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="20">
         <f>K4-S6</f>
         <v>12</v>
@@ -2700,9 +2727,9 @@
       <c r="L6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
       <c r="R6" s="9">
         <f>IF(E4&gt;K6,E4-K6,0)</f>
         <v>8</v>
@@ -2713,11 +2740,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2737,15 +2764,15 @@
       <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
@@ -2764,15 +2791,15 @@
       <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
@@ -2791,15 +2818,15 @@
       <c r="L9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -2818,9 +2845,9 @@
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
@@ -3718,20 +3745,20 @@
       </c>
     </row>
     <row r="27" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
       <c r="R27" s="10"/>
     </row>
   </sheetData>
@@ -3761,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B90C6D5-4AEC-4642-99CE-F49BBD127ABC}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.6"/>
@@ -3784,71 +3811,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="16">
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="15"/>
       <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
       <c r="R2" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="18">
         <v>81</v>
       </c>
-      <c r="F3" s="28" t="str">
+      <c r="F3" s="29" t="str">
         <f>CONCATENATE(E3,"  vs.  ",K3)</f>
         <v>81  vs.  83</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="18">
         <f>3*30-(SUM($C$12:$C$26)+SUM($K$12:$K$26))</f>
         <v>83</v>
@@ -3856,9 +3883,9 @@
       <c r="L3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
       <c r="R3" s="9" t="s">
         <v>57</v>
       </c>
@@ -3885,23 +3912,23 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="5">
         <v>15</v>
       </c>
-      <c r="F4" s="41" t="str">
+      <c r="F4" s="43" t="str">
         <f>CONCATENATE(E4,"  vs.  ",K4)</f>
         <v>15  vs.  16</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="5">
         <f>2*C2-(5*30-(COUNTBLANK(E12:I26)+COUNTBLANK(M12:Q26)))</f>
         <v>16</v>
@@ -3909,9 +3936,9 @@
       <c r="L4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
       <c r="R4" s="9" t="s">
         <v>42</v>
       </c>
@@ -3944,11 +3971,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="17" t="s">
         <v>41</v>
       </c>
@@ -3956,14 +3983,14 @@
         <f>E3+R5</f>
         <v>81</v>
       </c>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="44" t="str">
         <f>CONCATENATE(E5,"  vs.  ",K5)</f>
         <v>81  vs.  84</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
       <c r="K5" s="18">
         <f>K3+S5</f>
         <v>84</v>
@@ -3971,9 +3998,9 @@
       <c r="L5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
       <c r="R5" s="9">
         <f>3*R6</f>
         <v>0</v>
@@ -3984,9 +4011,9 @@
       </c>
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="19" t="s">
         <v>40</v>
       </c>
@@ -3994,14 +4021,14 @@
         <f>E4-R6</f>
         <v>15</v>
       </c>
-      <c r="F6" s="45" t="str">
+      <c r="F6" s="47" t="str">
         <f>CONCATENATE(E6,"  vs.  ",K6)</f>
         <v>15  vs.  15</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="20">
         <f>K4-S6</f>
         <v>15</v>
@@ -4009,9 +4036,9 @@
       <c r="L6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
       <c r="R6" s="9">
         <f>IF(E4&gt;K6,E4-K6,0)</f>
         <v>0</v>
@@ -4022,11 +4049,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
@@ -4046,15 +4073,15 @@
       <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
@@ -4073,15 +4100,15 @@
       <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
@@ -4100,15 +4127,15 @@
       <c r="L9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -4127,9 +4154,9 @@
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
@@ -5021,20 +5048,20 @@
       </c>
     </row>
     <row r="27" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
       <c r="R27" s="10"/>
     </row>
   </sheetData>
@@ -5061,4 +5088,1211 @@
     <ignoredError sqref="C12 C13:C26" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CD722F-D130-4D43-8A98-EA6D90BE8B16}">
+  <dimension ref="A1:AC27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="9" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="20.5" style="2" customWidth="1"/>
+    <col min="13" max="15" width="9" style="1"/>
+    <col min="16" max="17" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="8"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="12.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="12.625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="16">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="R2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="18">
+        <v>54</v>
+      </c>
+      <c r="F3" s="29" t="str">
+        <f>CONCATENATE(E3,"  vs.  ",K3)</f>
+        <v>54  vs.  22</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="18">
+        <f>3*30-(SUM($C$12:$C$26)+SUM($K$12:$K$26))</f>
+        <v>22</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="R3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5">
+        <v>38</v>
+      </c>
+      <c r="F4" s="43" t="str">
+        <f>CONCATENATE(E4,"  vs.  ",K4)</f>
+        <v>38  vs.  48</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="5">
+        <f>2*C2-(5*30-(COUNTBLANK(E12:I26)+COUNTBLANK(M12:Q26)))</f>
+        <v>48</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="R4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="23">
+        <f>E3+R5</f>
+        <v>54</v>
+      </c>
+      <c r="F5" s="44" t="str">
+        <f>CONCATENATE(E5,"  vs.  ",K5)</f>
+        <v>54  vs.  36</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="18">
+        <f>K3+S5</f>
+        <v>36</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="R5" s="9">
+        <f>3*R6</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <f>2*E9+E10</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="24">
+        <f>E4-R6</f>
+        <v>38</v>
+      </c>
+      <c r="F6" s="47" t="str">
+        <f>CONCATENATE(E6,"  vs.  ",K6)</f>
+        <v>38  vs.  41</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="20">
+        <f>K4-S6</f>
+        <v>41</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="R6" s="9">
+        <f>IF(E4&gt;K6,E4-K6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <f>SUM(E9:E10)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1">
+        <f>COUNTIF($C$12:$C$26,"&gt;0")+COUNTIF($K$12:$K$26,"&gt;0")</f>
+        <v>25</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="1">
+        <f>SUM(K8:K10)</f>
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1">
+        <f>COUNTIF($C$12:$C$26,"=3")+COUNTIF($K$12:$K$26,"=3")</f>
+        <v>18</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1">
+        <f>COUNTIF($C$12:$C$26,"=2")+COUNTIF($K$12:$K$26,"=2")</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1">
+        <f>COUNTIF($C$12:$C$26,"=1")+COUNTIF($K$12:$K$26,"=1")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:29" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:29" ht="25.15" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:C26" si="0">3-(SUM(E12:I12))</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="1">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" ref="K12:K26" si="1">3-(SUM(M12:Q12))</f>
+        <v>3</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="1" t="b">
+        <f t="shared" ref="U12:W26" si="2">IF($C12=U$3, IF($D12&lt;&gt;"", $D12))</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MOON</v>
+      </c>
+      <c r="W12" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1" t="str">
+        <f>IF($K12=Z$3,IF($L12&lt;&gt;"",$L12))</f>
+        <v>에키드나</v>
+      </c>
+      <c r="AA12" s="1" t="b">
+        <f t="shared" ref="AA12:AB26" si="3">IF($K12=AA$3,IF($L12&lt;&gt;"",$L12))</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="26">
+        <v>17</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SK</v>
+      </c>
+      <c r="V13" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="b">
+        <f t="shared" ref="Z13:Z26" si="4">IF($K13=Z$3,IF($L13&lt;&gt;"",$L13))</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>월광</v>
+      </c>
+      <c r="V14" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>깍두기</v>
+      </c>
+      <c r="AB14" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="B15" s="26">
+        <v>4</v>
+      </c>
+      <c r="C15" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1">
+        <v>19</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>개작두</v>
+      </c>
+      <c r="AA15" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1">
+        <v>20</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>렁큰이형님</v>
+      </c>
+      <c r="V16" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>OscaR</v>
+      </c>
+      <c r="AB16" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1">
+        <v>21</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>티파 록하트</v>
+      </c>
+      <c r="V17" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>마리나</v>
+      </c>
+      <c r="AA17" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1">
+        <v>22</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>머라구여</v>
+      </c>
+      <c r="V18" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>노가장</v>
+      </c>
+      <c r="AA18" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1">
+        <v>23</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>겨울나그네</v>
+      </c>
+      <c r="V19" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>귬찡</v>
+      </c>
+      <c r="AB19" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="1">
+        <v>24</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MUNAM</v>
+      </c>
+      <c r="V20" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>짱맨</v>
+      </c>
+      <c r="AA20" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B21" s="26">
+        <v>10</v>
+      </c>
+      <c r="C21" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="26">
+        <v>25</v>
+      </c>
+      <c r="K21" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="U21" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B22" s="1">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="1">
+        <v>26</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Sun</v>
+      </c>
+      <c r="V22" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>산들바람</v>
+      </c>
+      <c r="AA22" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B23" s="1">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="1">
+        <v>27</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Hyoh</v>
+      </c>
+      <c r="W23" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>튼튼맘</v>
+      </c>
+      <c r="AA23" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B24" s="1">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1">
+        <v>28</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>백수룡</v>
+      </c>
+      <c r="V24" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>딘</v>
+      </c>
+      <c r="AA24" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.6">
+      <c r="B25" s="26">
+        <v>14</v>
+      </c>
+      <c r="C25" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="1">
+        <v>29</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U25" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>연화</v>
+      </c>
+      <c r="AA25" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B26" s="1">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="1">
+        <v>30</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MSX4041</v>
+      </c>
+      <c r="W26" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>까르낏깃</v>
+      </c>
+      <c r="AB26" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="R27" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="M3:O4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="M7:O10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/board/board.xlsx
+++ b/board/board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchoi\Coding\python\ffbe\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7E1177-B98C-47E4-9E15-0183FB220E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F350C21-760B-4BA1-A330-64791D1D9394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="5" xr2:uid="{22A6B02C-C23B-4629-9D20-3125872BB3F0}"/>
+    <workbookView xWindow="-15405" yWindow="5108" windowWidth="15465" windowHeight="11332" activeTab="6" xr2:uid="{22A6B02C-C23B-4629-9D20-3125872BB3F0}"/>
   </bookViews>
   <sheets>
     <sheet name="0906" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="0909" sheetId="4" r:id="rId4"/>
     <sheet name="0910" sheetId="5" r:id="rId5"/>
     <sheet name="0911" sheetId="6" r:id="rId6"/>
-    <sheet name="0912" sheetId="7" r:id="rId7"/>
+    <sheet name="0913" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -622,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1025,13 +1025,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,148 +1281,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1410,16 +1294,169 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1808,71 +1845,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
     </row>
     <row r="2" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="16">
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
       <c r="K2" s="15"/>
       <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
       <c r="R2" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="18">
         <v>90</v>
       </c>
-      <c r="F3" s="73" t="str">
+      <c r="F3" s="95" t="str">
         <f>CONCATENATE(E3,"  vs.  ",K3)</f>
         <v>90  vs.  89</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="18">
         <f>3*$C$2-(SUM($C$12:$C$26)+SUM($K$12:$K$26))</f>
         <v>89</v>
@@ -1880,9 +1917,9 @@
       <c r="L3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
       <c r="R3" s="9" t="s">
         <v>57</v>
       </c>
@@ -1933,9 +1970,9 @@
       <c r="L4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
       <c r="R4" s="9" t="s">
         <v>42</v>
       </c>
@@ -1995,9 +2032,9 @@
       <c r="L5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
       <c r="R5" s="9">
         <f>3*R6</f>
         <v>3</v>
@@ -2033,9 +2070,9 @@
       <c r="L6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
       <c r="R6" s="9">
         <f>IF(E4&gt;K6,E4-K6,0)</f>
         <v>1</v>
@@ -2046,11 +2083,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2058,11 +2095,11 @@
         <f>COUNTIF($C$12:$C$26,"&gt;0")+COUNTIF($K$12:$K$26,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="5">
         <f>SUM(K8:K10)</f>
         <v>2</v>
@@ -2070,15 +2107,15 @@
       <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
@@ -2086,26 +2123,26 @@
         <f>COUNTIF($C$12:$C$26,"=3")+COUNTIF($K$12:$K$26,"=3")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
@@ -2113,26 +2150,26 @@
         <f>COUNTIF($C$12:$C$26,"=2")+COUNTIF($K$12:$K$26,"=2")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -2140,20 +2177,20 @@
         <f>COUNTIF($C$12:$C$26,"=1")+COUNTIF($K$12:$K$26,"=1")</f>
         <v>1</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="5">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
@@ -3042,24 +3079,27 @@
       </c>
     </row>
     <row r="27" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
       <c r="R27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="F9:J9"/>
     <mergeCell ref="B27:O27"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:O4"/>
@@ -3076,9 +3116,6 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="A7:C10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3115,71 +3152,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
     </row>
     <row r="2" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="16">
         <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
       <c r="K2" s="15"/>
       <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
       <c r="R2" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="18">
         <v>64</v>
       </c>
-      <c r="F3" s="73" t="str">
+      <c r="F3" s="95" t="str">
         <f>CONCATENATE(E3,"  vs.  ",K3)</f>
         <v>64  vs.  87</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="18">
         <f>3*30-(SUM($C$12:$C$26)+SUM($K$12:$K$26))</f>
         <v>87</v>
@@ -3187,9 +3224,9 @@
       <c r="L3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
       <c r="R3" s="9" t="s">
         <v>57</v>
       </c>
@@ -3240,9 +3277,9 @@
       <c r="L4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
       <c r="R4" s="9" t="s">
         <v>42</v>
       </c>
@@ -3302,9 +3339,9 @@
       <c r="L5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
       <c r="R5" s="9">
         <f>3*R6</f>
         <v>24</v>
@@ -3340,9 +3377,9 @@
       <c r="L6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
       <c r="R6" s="9">
         <f>IF(E4&gt;K6,E4-K6,0)</f>
         <v>8</v>
@@ -3353,11 +3390,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
@@ -3377,15 +3414,15 @@
       <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
@@ -3404,15 +3441,15 @@
       <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
@@ -3431,15 +3468,15 @@
       <c r="L9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -3458,9 +3495,9 @@
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
@@ -4358,31 +4395,24 @@
       </c>
     </row>
     <row r="27" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
       <c r="R27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="M7:O10"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:J2"/>
@@ -4391,6 +4421,13 @@
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="M3:O4"/>
     <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="M7:O10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4424,71 +4461,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
     </row>
     <row r="2" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="16">
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
       <c r="K2" s="15"/>
       <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
       <c r="R2" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="18">
         <v>81</v>
       </c>
-      <c r="F3" s="73" t="str">
+      <c r="F3" s="95" t="str">
         <f>CONCATENATE(E3,"  vs.  ",K3)</f>
         <v>81  vs.  83</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="18">
         <f>3*30-(SUM($C$12:$C$26)+SUM($K$12:$K$26))</f>
         <v>83</v>
@@ -4496,9 +4533,9 @@
       <c r="L3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
       <c r="R3" s="9" t="s">
         <v>57</v>
       </c>
@@ -4549,9 +4586,9 @@
       <c r="L4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
       <c r="R4" s="9" t="s">
         <v>42</v>
       </c>
@@ -4611,9 +4648,9 @@
       <c r="L5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
       <c r="R5" s="9">
         <f>3*R6</f>
         <v>0</v>
@@ -4649,9 +4686,9 @@
       <c r="L6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
       <c r="R6" s="9">
         <f>IF(E4&gt;K6,E4-K6,0)</f>
         <v>0</v>
@@ -4662,11 +4699,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
@@ -4686,15 +4723,15 @@
       <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
@@ -4713,15 +4750,15 @@
       <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
@@ -4740,15 +4777,15 @@
       <c r="L9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -4767,9 +4804,9 @@
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
@@ -5661,24 +5698,31 @@
       </c>
     </row>
     <row r="27" spans="2:28" s="7" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
       <c r="R27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="M7:O10"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:J2"/>
@@ -5687,13 +5731,6 @@
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="M3:O4"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="M7:O10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5735,43 +5772,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="94"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="111"/>
     </row>
     <row r="2" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="35"/>
       <c r="E2" s="36" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="35"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
       <c r="L2" s="37"/>
       <c r="M2" s="36" t="s">
         <v>27</v>
@@ -5779,34 +5816,34 @@
       <c r="N2" s="38">
         <v>30</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O2" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="102"/>
+      <c r="P2" s="118"/>
       <c r="AA2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="18">
         <v>90</v>
       </c>
-      <c r="G3" s="73" t="str">
+      <c r="G3" s="95" t="str">
         <f>CONCATENATE(F3,"  vs.  ",L3)</f>
         <v>90  vs.  90</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="18">
         <f>3*30-(SUM($D$12:$D$26)+SUM($L$12:$L$26))</f>
         <v>90</v>
@@ -5814,9 +5851,9 @@
       <c r="M3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="100"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="117"/>
       <c r="AA3" s="2" t="s">
         <v>57</v>
       </c>
@@ -5843,7 +5880,7 @@
       </c>
     </row>
     <row r="4" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="99"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="2" t="s">
@@ -5867,9 +5904,9 @@
       <c r="M4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="101"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="110"/>
       <c r="AA4" s="2" t="s">
         <v>42</v>
       </c>
@@ -5902,7 +5939,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="85"/>
@@ -5929,9 +5966,9 @@
       <c r="M5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="108"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="103"/>
       <c r="AA5" s="2">
         <f>3*AA6</f>
         <v>6</v>
@@ -5942,7 +5979,7 @@
       </c>
     </row>
     <row r="6" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="107"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="86"/>
       <c r="D6" s="86"/>
       <c r="E6" s="19" t="s">
@@ -5967,9 +6004,9 @@
       <c r="M6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="109"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="104"/>
       <c r="AA6" s="2">
         <f>IF(F4&gt;L6,F4-L6,0)</f>
         <v>2</v>
@@ -5980,11 +6017,11 @@
       </c>
     </row>
     <row r="7" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
@@ -6004,14 +6041,14 @@
       <c r="M7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="113"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="108"/>
     </row>
     <row r="8" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="111"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
@@ -6030,14 +6067,14 @@
       <c r="M8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="114"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="109"/>
     </row>
     <row r="9" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="111"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
@@ -6056,14 +6093,14 @@
       <c r="M9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="114"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="109"/>
     </row>
     <row r="10" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="112"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
@@ -6082,15 +6119,15 @@
       <c r="M10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="101"/>
-      <c r="V10" s="103" t="s">
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="110"/>
+      <c r="V10" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="105"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="100"/>
     </row>
     <row r="11" spans="1:37" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B11" s="40"/>
@@ -7360,13 +7397,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="N5:P6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="N7:P10"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:K2"/>
@@ -7375,6 +7405,13 @@
     <mergeCell ref="N3:P4"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="N5:P6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="N7:P10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C12:E26">
@@ -7459,43 +7496,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
     </row>
     <row r="2" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="35"/>
       <c r="E2" s="36" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="35"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
       <c r="L2" s="37"/>
       <c r="M2" s="36" t="s">
         <v>27</v>
@@ -7503,34 +7540,34 @@
       <c r="N2" s="71">
         <v>29</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O2" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="102"/>
+      <c r="P2" s="118"/>
       <c r="AA2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="61">
         <v>87</v>
       </c>
-      <c r="G3" s="73" t="str">
+      <c r="G3" s="95" t="str">
         <f>CONCATENATE(F3,"  vs.  ",L3)</f>
         <v>87  vs.  84</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="18">
         <f>3*30-(SUM($D$12:$D$26)+SUM($L$12:$L$26))</f>
         <v>84</v>
@@ -7538,9 +7575,9 @@
       <c r="M3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="100"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="117"/>
       <c r="AA3" s="2" t="s">
         <v>57</v>
       </c>
@@ -7567,7 +7604,7 @@
       </c>
     </row>
     <row r="4" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="99"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="2" t="s">
@@ -7591,9 +7628,9 @@
       <c r="M4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="101"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="110"/>
       <c r="AA4" s="2" t="s">
         <v>42</v>
       </c>
@@ -7626,7 +7663,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="85"/>
@@ -7653,9 +7690,9 @@
       <c r="M5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="108"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="103"/>
       <c r="AA5" s="2">
         <f>3*AA6</f>
         <v>6</v>
@@ -7666,7 +7703,7 @@
       </c>
     </row>
     <row r="6" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="107"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="86"/>
       <c r="D6" s="86"/>
       <c r="E6" s="19" t="s">
@@ -7691,9 +7728,9 @@
       <c r="M6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="109"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="104"/>
       <c r="AA6" s="2">
         <f>IF(F4&gt;L6,F4-L6,0)</f>
         <v>2</v>
@@ -7704,11 +7741,11 @@
       </c>
     </row>
     <row r="7" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
@@ -7727,14 +7764,14 @@
       <c r="M7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="113"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="108"/>
     </row>
     <row r="8" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="111"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
@@ -7753,14 +7790,14 @@
       <c r="M8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="114"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="109"/>
     </row>
     <row r="9" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="111"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
@@ -7779,14 +7816,14 @@
       <c r="M9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="114"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="109"/>
     </row>
     <row r="10" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="112"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
@@ -7805,15 +7842,15 @@
       <c r="M10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="101"/>
-      <c r="V10" s="103" t="s">
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="110"/>
+      <c r="V10" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="105"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="100"/>
     </row>
     <row r="11" spans="1:37" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B11" s="40"/>
@@ -9135,13 +9172,6 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="15">
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="N5:P6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="N7:P10"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:K2"/>
@@ -9150,6 +9180,13 @@
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="N3:P4"/>
     <mergeCell ref="G4:K4"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="N5:P6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="N7:P10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C12:E26">
@@ -9203,7 +9240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE639E24-645B-4EE8-9C79-6EC0896BA3B6}">
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -9231,31 +9268,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
     </row>
     <row r="2" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="71">
         <v>30</v>
       </c>
@@ -9263,13 +9300,13 @@
         <v>42</v>
       </c>
       <c r="F2" s="35"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
       <c r="L2" s="37"/>
       <c r="M2" s="36" t="s">
         <v>27</v>
@@ -9277,10 +9314,10 @@
       <c r="N2" s="71">
         <v>30</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O2" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="102"/>
+      <c r="P2" s="118"/>
       <c r="W2" s="1" t="s">
         <v>103</v>
       </c>
@@ -9292,25 +9329,25 @@
       </c>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="61">
         <v>80</v>
       </c>
-      <c r="G3" s="73" t="str">
+      <c r="G3" s="95" t="str">
         <f>CONCATENATE(F3,"  vs.  ",L3)</f>
         <v>80  vs.  90</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="18">
         <f>3*30-(SUM($D$13:$D$27)+SUM($L$13:$L$27))</f>
         <v>90</v>
@@ -9318,13 +9355,13 @@
       <c r="M3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="100"/>
-      <c r="X3" s="75" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="117"/>
+      <c r="X3" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="75"/>
+      <c r="Y3" s="83"/>
       <c r="AA3" s="2" t="s">
         <v>57</v>
       </c>
@@ -9351,23 +9388,23 @@
       </c>
     </row>
     <row r="4" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="62">
         <v>19</v>
       </c>
-      <c r="G4" s="118" t="str">
+      <c r="G4" s="119" t="str">
         <f>CONCATENATE(F4,"  vs.  ",L4)</f>
         <v>19  vs.  24</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
       <c r="L4" s="5">
         <f>2*N2-(5*30-(COUNTBLANK(F13:J27)+COUNTBLANK(N13:R27)))</f>
         <v>24</v>
@@ -9375,9 +9412,9 @@
       <c r="M4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="114"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="109"/>
       <c r="X4" s="2" t="s">
         <v>104</v>
       </c>
@@ -9417,7 +9454,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B5" s="99"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="84"/>
       <c r="D5" s="84"/>
       <c r="E5" s="2" t="s">
@@ -9427,14 +9464,14 @@
         <f>F3/(D2*2-F4)</f>
         <v>1.9512195121951219</v>
       </c>
-      <c r="G5" s="119" t="str">
+      <c r="G5" s="122" t="str">
         <f>CONCATENATE(ROUND(F5, 2),"  vs.  ", ROUND(L5, 2))</f>
         <v>1.95  vs.  2.5</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
       <c r="L5" s="5">
         <f>L3/(N2*2-L4)</f>
         <v>2.5</v>
@@ -9442,9 +9479,9 @@
       <c r="M5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="101"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="110"/>
       <c r="X5" s="2" t="s">
         <v>102</v>
       </c>
@@ -9453,7 +9490,7 @@
       </c>
     </row>
     <row r="6" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="85"/>
@@ -9480,9 +9517,9 @@
       <c r="M6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="108"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="103"/>
       <c r="X6" s="22" t="s">
         <v>100</v>
       </c>
@@ -9499,7 +9536,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B7" s="107"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="86"/>
       <c r="D7" s="86"/>
       <c r="E7" s="19" t="s">
@@ -9524,9 +9561,9 @@
       <c r="M7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="109"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="104"/>
       <c r="X7" s="2" t="s">
         <v>101</v>
       </c>
@@ -9544,11 +9581,11 @@
       </c>
     </row>
     <row r="8" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
@@ -9561,27 +9598,27 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="120">
+      <c r="L8" s="74">
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="113"/>
-      <c r="X8" s="121" t="s">
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="108"/>
+      <c r="X8" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="Y8" s="121">
+      <c r="Y8" s="75">
         <f>Y7-Y5</f>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="111"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
@@ -9594,27 +9631,27 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="120">
+      <c r="L9" s="74">
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="114"/>
-      <c r="X9" s="121" t="s">
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="109"/>
+      <c r="X9" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="Y9" s="121">
+      <c r="Y9" s="75">
         <f>N2-Y7-Y6</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="111"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
@@ -9627,20 +9664,20 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="120">
+      <c r="L10" s="74">
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="114"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="109"/>
     </row>
     <row r="11" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="112"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
@@ -9653,21 +9690,21 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="120">
+      <c r="L11" s="74">
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="101"/>
-      <c r="V11" s="103" t="s">
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="110"/>
+      <c r="V11" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="105"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="100"/>
     </row>
     <row r="12" spans="1:37" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B12" s="40"/>
@@ -10971,12 +11008,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="G3:K3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="N3:P5"/>
@@ -10988,6 +11019,12 @@
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="B8:D11"/>
     <mergeCell ref="N8:P11"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="G3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C13:E27">
@@ -11045,8 +11082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37281DA4-0F3D-4C93-BED6-9A08FED4FEC7}">
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.6"/>
@@ -11073,45 +11110,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="6.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
     </row>
     <row r="2" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="35"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
       <c r="L2" s="37"/>
       <c r="M2" s="36" t="s">
         <v>27</v>
@@ -11119,54 +11156,54 @@
       <c r="N2" s="71">
         <v>30</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O2" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="102"/>
+      <c r="P2" s="118"/>
       <c r="W2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>109</v>
+      <c r="X2" s="63" t="s">
+        <v>31</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="61">
-        <v>0</v>
-      </c>
-      <c r="G3" s="73" t="str">
+        <v>64</v>
+      </c>
+      <c r="G3" s="95" t="str">
         <f>CONCATENATE(F3,"  vs.  ",L3)</f>
-        <v>0  vs.  0</v>
-      </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+        <v>64  vs.  81</v>
+      </c>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="18">
         <f>3*30-(SUM($D$13:$D$27)+SUM($L$13:$L$27))</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="100"/>
-      <c r="X3" s="75" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="117"/>
+      <c r="X3" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="75"/>
+      <c r="Y3" s="117"/>
       <c r="AA3" s="2" t="s">
         <v>57</v>
       </c>
@@ -11193,39 +11230,39 @@
       </c>
     </row>
     <row r="4" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="62">
-        <v>0</v>
-      </c>
-      <c r="G4" s="118" t="str">
+        <v>25</v>
+      </c>
+      <c r="G4" s="119" t="str">
         <f>CONCATENATE(F4,"  vs.  ",L4)</f>
-        <v>0  vs.  60</v>
-      </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
+        <v>25  vs.  23</v>
+      </c>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
       <c r="L4" s="5">
         <f>2*N2-(5*30-(COUNTBLANK(F13:J27)+COUNTBLANK(N13:R27)))</f>
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="114"/>
-      <c r="X4" s="2" t="s">
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="109"/>
+      <c r="X4" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="Y4" s="123">
+      <c r="Y4" s="27">
         <f>N2*2-L4</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>42</v>
@@ -11259,7 +11296,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B5" s="99"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="84"/>
       <c r="D5" s="84"/>
       <c r="E5" s="2" t="s">
@@ -11267,35 +11304,35 @@
       </c>
       <c r="F5" s="62">
         <f>F3/(D2*2-F4)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="119" t="e">
+        <v>1.9393939393939394</v>
+      </c>
+      <c r="G5" s="122" t="str">
         <f>CONCATENATE(ROUND(F5, 2),"  vs.  ", ROUND(L5, 2))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="5" t="e">
+        <v>1.94  vs.  2.19</v>
+      </c>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="5">
         <f>L3/(N2*2-L4)</f>
-        <v>#DIV/0!</v>
+        <v>2.189189189189189</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="101"/>
-      <c r="X5" s="2" t="s">
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="110"/>
+      <c r="X5" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="Y5" s="122">
-        <v>0</v>
+      <c r="Y5" s="126">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="85"/>
@@ -11305,11 +11342,11 @@
       </c>
       <c r="F6" s="23">
         <f>F3+AA6</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G6" s="88" t="str">
         <f>CONCATENATE(F6,"  vs.  ",L6)</f>
-        <v>0  vs.  0</v>
+        <v>70  vs.  81</v>
       </c>
       <c r="H6" s="89"/>
       <c r="I6" s="89"/>
@@ -11317,23 +11354,23 @@
       <c r="K6" s="90"/>
       <c r="L6" s="18">
         <f>L3+AB6</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="108"/>
-      <c r="X6" s="22" t="s">
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="103"/>
+      <c r="X6" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" s="124">
-        <v>5</v>
+      <c r="Y6" s="127">
+        <v>4</v>
       </c>
       <c r="AA6" s="2">
         <f>3*AA7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="2">
         <f>2*F10+F11</f>
@@ -11341,7 +11378,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B7" s="107"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="86"/>
       <c r="D7" s="86"/>
       <c r="E7" s="19" t="s">
@@ -11349,11 +11386,11 @@
       </c>
       <c r="F7" s="24">
         <f>F4-AA7</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G7" s="91" t="str">
         <f>CONCATENATE(F7,"  vs.  ",L7)</f>
-        <v>0  vs.  60</v>
+        <v>23  vs.  23</v>
       </c>
       <c r="H7" s="92"/>
       <c r="I7" s="92"/>
@@ -11361,24 +11398,24 @@
       <c r="K7" s="93"/>
       <c r="L7" s="20">
         <f>L4-AB7</f>
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="109"/>
-      <c r="X7" s="2" t="s">
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="104"/>
+      <c r="X7" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="27">
         <f>Y4-Y6-Y5</f>
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="AA7" s="2">
         <f>IF(F4&gt;L7,F4-L7,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="2">
         <f>SUM(F10:F11)</f>
@@ -11386,77 +11423,77 @@
       </c>
     </row>
     <row r="8" spans="1:37" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="1">
         <f>COUNTIF($D$13:$D$27,"&gt;0")+COUNTIF($L$13:$L$27,"&gt;0")</f>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="120">
+      <c r="L8" s="74">
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="113"/>
-      <c r="X8" s="121" t="s">
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="108"/>
+      <c r="X8" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="Y8" s="121">
+      <c r="Y8" s="128">
         <f>Y7-Y5</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="111"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="106"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="1">
         <f>COUNTIF($D$13:$D$27,"=3")+COUNTIF($L$13:$L$27,"=3")</f>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="120">
+      <c r="L9" s="74">
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="114"/>
-      <c r="X9" s="121" t="s">
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="109"/>
+      <c r="X9" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="Y9" s="121">
+      <c r="Y9" s="129">
         <f>N2-Y7-Y6</f>
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="111"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
@@ -11469,20 +11506,20 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="120">
+      <c r="L10" s="74">
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="114"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="109"/>
     </row>
     <row r="11" spans="1:37" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="112"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
@@ -11495,21 +11532,21 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="120">
+      <c r="L11" s="74">
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="101"/>
-      <c r="V11" s="103" t="s">
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="110"/>
+      <c r="V11" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="105"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="100"/>
     </row>
     <row r="12" spans="1:37" s="11" customFormat="1" ht="25.15" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B12" s="40"/>
@@ -11582,7 +11619,7 @@
       <c r="B13" s="42"/>
       <c r="C13" s="55">
         <f>COUNT(F13:J13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="56">
         <f t="shared" ref="D13:D27" si="0">3-(SUM(F13:J13))</f>
@@ -11591,24 +11628,30 @@
       <c r="E13" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="65">
+        <v>0</v>
+      </c>
       <c r="G13" s="65"/>
       <c r="H13" s="65"/>
       <c r="I13" s="55"/>
       <c r="J13" s="57"/>
       <c r="K13" s="55">
         <f t="shared" ref="K13:K27" si="1">COUNT(N13:R13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="56">
         <f t="shared" ref="L13:L27" si="2">3-(SUM(N13:R13))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
+      <c r="N13" s="63">
+        <v>1</v>
+      </c>
+      <c r="O13" s="63">
+        <v>2</v>
+      </c>
       <c r="P13" s="68"/>
       <c r="U13" s="33"/>
       <c r="V13" s="2" t="str">
@@ -11617,7 +11660,7 @@
       </c>
       <c r="W13" s="32">
         <f>IF(ISBLANK(F13),2,IF(D13=0,COUNTA(F13:J13),COUNTA(F13:J13)+D13))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X13" s="2" t="str">
         <f>M13</f>
@@ -11640,9 +11683,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="1" t="str">
+      <c r="AH13" s="1" t="b">
         <f>IF($L13=AH$3,IF($M13&lt;&gt;"",$M13))</f>
-        <v>에키드나</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="1" t="b">
         <f t="shared" ref="AI13:AJ27" si="4">IF($L13=AI$3,IF($M13&lt;&gt;"",$M13))</f>
@@ -11657,33 +11700,39 @@
       <c r="B14" s="42"/>
       <c r="C14" s="55">
         <f t="shared" ref="C14:C27" si="5">COUNT(F14:J14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="65"/>
+      <c r="F14" s="65">
+        <v>3</v>
+      </c>
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
       <c r="I14" s="55"/>
       <c r="J14" s="57"/>
       <c r="K14" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
+      <c r="N14" s="63">
+        <v>2</v>
+      </c>
+      <c r="O14" s="63">
+        <v>1</v>
+      </c>
       <c r="P14" s="68"/>
       <c r="U14" s="30"/>
       <c r="V14" s="2" t="str">
@@ -11692,7 +11741,7 @@
       </c>
       <c r="W14" s="33">
         <f t="shared" ref="W14:W27" si="7">IF(ISBLANK(F14),2,IF(D14=0,COUNTA(F14:J14),COUNTA(F14:J14)+D14))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="2" t="str">
         <f t="shared" ref="X14:X27" si="8">M14</f>
@@ -11703,9 +11752,9 @@
         <v>2</v>
       </c>
       <c r="Z14" s="2"/>
-      <c r="AC14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SK</v>
+      <c r="AC14" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD14" s="1" t="b">
         <f t="shared" si="3"/>
@@ -11715,9 +11764,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="1" t="str">
+      <c r="AH14" s="1" t="b">
         <f t="shared" ref="AH14:AH27" si="10">IF($L14=AH$3,IF($M14&lt;&gt;"",$M14))</f>
-        <v>깍두기</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="1" t="b">
         <f t="shared" si="4"/>
@@ -11732,32 +11781,36 @@
       <c r="B15" s="42"/>
       <c r="C15" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="65">
+        <v>3</v>
+      </c>
       <c r="G15" s="65"/>
       <c r="H15" s="65"/>
       <c r="I15" s="55"/>
       <c r="J15" s="57"/>
       <c r="K15" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="63"/>
+      <c r="N15" s="63">
+        <v>3</v>
+      </c>
       <c r="O15" s="63"/>
       <c r="P15" s="68"/>
       <c r="U15" s="30"/>
@@ -11767,7 +11820,7 @@
       </c>
       <c r="W15" s="33">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15" s="2" t="str">
         <f t="shared" si="8"/>
@@ -11775,12 +11828,12 @@
       </c>
       <c r="Y15" s="27">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="2"/>
-      <c r="AC15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>월광</v>
+      <c r="AC15" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD15" s="1" t="b">
         <f t="shared" si="3"/>
@@ -11790,9 +11843,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="1" t="str">
+      <c r="AH15" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>가을하늘</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="1" t="b">
         <f t="shared" si="4"/>
@@ -11807,32 +11860,36 @@
       <c r="B16" s="42"/>
       <c r="C16" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="65">
+        <v>3</v>
+      </c>
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
       <c r="I16" s="55"/>
       <c r="J16" s="57"/>
       <c r="K16" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="63"/>
+      <c r="N16" s="63">
+        <v>3</v>
+      </c>
       <c r="O16" s="63"/>
       <c r="P16" s="68"/>
       <c r="U16" s="30"/>
@@ -11842,7 +11899,7 @@
       </c>
       <c r="W16" s="33">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" s="2" t="str">
         <f t="shared" si="8"/>
@@ -11850,12 +11907,12 @@
       </c>
       <c r="Y16" s="27">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="2"/>
-      <c r="AC16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>귀뚜라미</v>
+      <c r="AC16" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD16" s="1" t="b">
         <f t="shared" si="3"/>
@@ -11865,9 +11922,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="1" t="str">
+      <c r="AH16" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>OscaR</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="1" t="b">
         <f t="shared" si="4"/>
@@ -11882,32 +11939,38 @@
       <c r="B17" s="42"/>
       <c r="C17" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="F17" s="65">
+        <v>1</v>
+      </c>
+      <c r="G17" s="65">
+        <v>2</v>
+      </c>
       <c r="H17" s="65"/>
       <c r="I17" s="55"/>
       <c r="J17" s="57"/>
       <c r="K17" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="63"/>
+      <c r="N17" s="63">
+        <v>3</v>
+      </c>
       <c r="O17" s="63"/>
       <c r="P17" s="68"/>
       <c r="U17" s="30"/>
@@ -11925,12 +11988,12 @@
       </c>
       <c r="Y17" s="27">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="2"/>
-      <c r="AC17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>티파 록하트</v>
+      <c r="AC17" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD17" s="1" t="b">
         <f t="shared" si="3"/>
@@ -11940,9 +12003,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="1" t="str">
+      <c r="AH17" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>노가장</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="1" t="b">
         <f t="shared" si="4"/>
@@ -11957,32 +12020,36 @@
       <c r="B18" s="42"/>
       <c r="C18" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="65">
+        <v>3</v>
+      </c>
       <c r="G18" s="65"/>
       <c r="H18" s="65"/>
       <c r="I18" s="55"/>
       <c r="J18" s="57"/>
       <c r="K18" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="63"/>
+      <c r="N18" s="63">
+        <v>3</v>
+      </c>
       <c r="O18" s="63"/>
       <c r="P18" s="68"/>
       <c r="U18" s="30"/>
@@ -11992,7 +12059,7 @@
       </c>
       <c r="W18" s="33">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2" t="str">
         <f t="shared" si="8"/>
@@ -12000,12 +12067,12 @@
       </c>
       <c r="Y18" s="27">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="2"/>
-      <c r="AC18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>겨울나그네</v>
+      <c r="AC18" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD18" s="1" t="b">
         <f t="shared" si="3"/>
@@ -12015,9 +12082,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH18" s="1" t="str">
+      <c r="AH18" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>개작두</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="1" t="b">
         <f t="shared" si="4"/>
@@ -12032,32 +12099,36 @@
       <c r="B19" s="42"/>
       <c r="C19" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="65">
+        <v>3</v>
+      </c>
       <c r="G19" s="65"/>
       <c r="H19" s="65"/>
       <c r="I19" s="55"/>
       <c r="J19" s="57"/>
       <c r="K19" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="63"/>
+      <c r="N19" s="63">
+        <v>3</v>
+      </c>
       <c r="O19" s="63"/>
       <c r="P19" s="68"/>
       <c r="U19" s="30"/>
@@ -12067,7 +12138,7 @@
       </c>
       <c r="W19" s="33">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2" t="str">
         <f t="shared" si="8"/>
@@ -12075,12 +12146,12 @@
       </c>
       <c r="Y19" s="27">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="2"/>
-      <c r="AC19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>머라구여</v>
+      <c r="AC19" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD19" s="1" t="b">
         <f t="shared" si="3"/>
@@ -12090,9 +12161,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH19" s="1" t="str">
+      <c r="AH19" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>마리나</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="1" t="b">
         <f t="shared" si="4"/>
@@ -12107,32 +12178,40 @@
       <c r="B20" s="42"/>
       <c r="C20" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
+      <c r="F20" s="65">
+        <v>0</v>
+      </c>
+      <c r="G20" s="65">
+        <v>0</v>
+      </c>
+      <c r="H20" s="65">
+        <v>3</v>
+      </c>
       <c r="I20" s="55"/>
       <c r="J20" s="57"/>
       <c r="K20" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="63"/>
+      <c r="N20" s="63">
+        <v>3</v>
+      </c>
       <c r="O20" s="63"/>
       <c r="P20" s="68"/>
       <c r="U20" s="30"/>
@@ -12142,7 +12221,7 @@
       </c>
       <c r="W20" s="33">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20" s="2" t="str">
         <f t="shared" si="8"/>
@@ -12150,12 +12229,12 @@
       </c>
       <c r="Y20" s="27">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="2"/>
-      <c r="AC20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Hyoh</v>
+      <c r="AC20" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD20" s="1" t="b">
         <f t="shared" si="3"/>
@@ -12165,9 +12244,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH20" s="1" t="str">
+      <c r="AH20" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>귬찡</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="1" t="b">
         <f t="shared" si="4"/>
@@ -12182,32 +12261,36 @@
       <c r="B21" s="42"/>
       <c r="C21" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="65"/>
+      <c r="F21" s="65">
+        <v>3</v>
+      </c>
       <c r="G21" s="65"/>
       <c r="H21" s="65"/>
       <c r="I21" s="55"/>
       <c r="J21" s="57"/>
       <c r="K21" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="N21" s="63"/>
+      <c r="N21" s="63">
+        <v>3</v>
+      </c>
       <c r="O21" s="63"/>
       <c r="P21" s="68"/>
       <c r="U21" s="30"/>
@@ -12217,7 +12300,7 @@
       </c>
       <c r="W21" s="33">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2" t="str">
         <f t="shared" si="8"/>
@@ -12225,12 +12308,12 @@
       </c>
       <c r="Y21" s="27">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="2"/>
-      <c r="AC21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>렁큰이형님</v>
+      <c r="AC21" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD21" s="1" t="b">
         <f t="shared" si="3"/>
@@ -12240,9 +12323,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH21" s="1" t="str">
+      <c r="AH21" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>호비잉</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="1" t="b">
         <f t="shared" si="4"/>
@@ -12257,32 +12340,36 @@
       <c r="B22" s="42"/>
       <c r="C22" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="65"/>
+      <c r="F22" s="65">
+        <v>3</v>
+      </c>
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
       <c r="I22" s="55"/>
       <c r="J22" s="57"/>
       <c r="K22" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="N22" s="63"/>
+      <c r="N22" s="63">
+        <v>3</v>
+      </c>
       <c r="O22" s="63"/>
       <c r="P22" s="68"/>
       <c r="U22" s="30"/>
@@ -12292,7 +12379,7 @@
       </c>
       <c r="W22" s="33">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2" t="str">
         <f t="shared" si="8"/>
@@ -12300,12 +12387,12 @@
       </c>
       <c r="Y22" s="27">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="2"/>
-      <c r="AC22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Sun</v>
+      <c r="AC22" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD22" s="1" t="b">
         <f t="shared" si="3"/>
@@ -12315,9 +12402,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH22" s="1" t="str">
+      <c r="AH22" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>짱맨</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1" t="b">
         <f t="shared" si="4"/>
@@ -12332,17 +12419,21 @@
       <c r="B23" s="42"/>
       <c r="C23" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
+      <c r="F23" s="65">
+        <v>1</v>
+      </c>
+      <c r="G23" s="65">
+        <v>2</v>
+      </c>
       <c r="H23" s="65"/>
       <c r="I23" s="55"/>
       <c r="J23" s="57"/>
@@ -12378,9 +12469,9 @@
         <v>2</v>
       </c>
       <c r="Z23" s="2"/>
-      <c r="AC23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MUNAM</v>
+      <c r="AC23" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD23" s="1" t="b">
         <f t="shared" si="3"/>
@@ -12407,32 +12498,38 @@
       <c r="B24" s="42"/>
       <c r="C24" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="F24" s="65">
+        <v>1</v>
+      </c>
+      <c r="G24" s="65">
+        <v>2</v>
+      </c>
       <c r="H24" s="65"/>
       <c r="I24" s="55"/>
       <c r="J24" s="57"/>
       <c r="K24" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="N24" s="63"/>
+      <c r="N24" s="63">
+        <v>3</v>
+      </c>
       <c r="O24" s="63"/>
       <c r="P24" s="68"/>
       <c r="U24" s="30"/>
@@ -12450,12 +12547,12 @@
       </c>
       <c r="Y24" s="27">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="2"/>
-      <c r="AC24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>라텔</v>
+      <c r="AC24" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD24" s="1" t="b">
         <f t="shared" si="3"/>
@@ -12465,9 +12562,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH24" s="1" t="str">
+      <c r="AH24" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>튼튼맘</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="1" t="b">
         <f t="shared" si="4"/>
@@ -12482,33 +12579,41 @@
       <c r="B25" s="42"/>
       <c r="C25" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="F25" s="65">
+        <v>1</v>
+      </c>
+      <c r="G25" s="65">
+        <v>2</v>
+      </c>
       <c r="H25" s="65"/>
       <c r="I25" s="55"/>
       <c r="J25" s="57"/>
       <c r="K25" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
+      <c r="N25" s="63">
+        <v>0</v>
+      </c>
+      <c r="O25" s="63">
+        <v>3</v>
+      </c>
       <c r="P25" s="68"/>
       <c r="U25" s="30"/>
       <c r="V25" s="2" t="str">
@@ -12528,9 +12633,9 @@
         <v>2</v>
       </c>
       <c r="Z25" s="2"/>
-      <c r="AC25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>낮술이최고야</v>
+      <c r="AC25" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD25" s="1" t="b">
         <f t="shared" si="3"/>
@@ -12540,9 +12645,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH25" s="1" t="str">
+      <c r="AH25" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>까르낏깃</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="1" t="b">
         <f t="shared" si="4"/>
@@ -12557,32 +12662,36 @@
       <c r="B26" s="42"/>
       <c r="C26" s="55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="65"/>
+      <c r="F26" s="65">
+        <v>3</v>
+      </c>
       <c r="G26" s="65"/>
       <c r="H26" s="65"/>
       <c r="I26" s="55"/>
       <c r="J26" s="57"/>
       <c r="K26" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="63"/>
+      <c r="N26" s="63">
+        <v>3</v>
+      </c>
       <c r="O26" s="63"/>
       <c r="P26" s="68"/>
       <c r="U26" s="30"/>
@@ -12592,7 +12701,7 @@
       </c>
       <c r="W26" s="33">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="str">
         <f t="shared" si="8"/>
@@ -12600,12 +12709,12 @@
       </c>
       <c r="Y26" s="27">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AC26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>백수룡</v>
+      <c r="AC26" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD26" s="1" t="b">
         <f t="shared" si="3"/>
@@ -12615,9 +12724,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH26" s="1" t="str">
+      <c r="AH26" s="1" t="b">
         <f t="shared" si="10"/>
-        <v>연화</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="1" t="b">
         <f t="shared" si="4"/>
@@ -12632,16 +12741,18 @@
       <c r="B27" s="46"/>
       <c r="C27" s="58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="59">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="67"/>
+      <c r="F27" s="67">
+        <v>3</v>
+      </c>
       <c r="G27" s="67"/>
       <c r="H27" s="67"/>
       <c r="I27" s="58"/>
@@ -12667,7 +12778,7 @@
       </c>
       <c r="W27" s="34">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27" s="28" t="str">
         <f t="shared" si="8"/>
@@ -12678,9 +12789,9 @@
         <v>2</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AC27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MSX4041</v>
+      <c r="AC27" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD27" s="1" t="b">
         <f t="shared" si="3"/>
@@ -12741,6 +12852,13 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="N3:P5"/>
     <mergeCell ref="B8:D11"/>
     <mergeCell ref="N8:P11"/>
     <mergeCell ref="V11:Y11"/>
@@ -12751,13 +12869,6 @@
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="N6:P7"/>
     <mergeCell ref="G7:K7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="N3:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C13:E27">
